--- a/Semana02/Libro2.xlsx
+++ b/Semana02/Libro2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-EPIES-DAS-2022-1\Semana02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AF24264-69EF-4AEF-BD5D-023643B455E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A370B1-4E6E-4149-8B57-A2CB9B0D4FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1828448C-D57A-4B34-AEE1-A92D39F21E03}"/>
   </bookViews>
@@ -150,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +176,13 @@
       <b/>
       <sz val="16"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -231,6 +238,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,7 +561,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,27 +1017,27 @@
       </c>
     </row>
     <row r="20" spans="2:10" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <f>SUM(C4:C19)</f>
         <v>19</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <f t="shared" ref="D20:E20" si="0">SUM(D4:D19)</f>
         <v>558</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>34020</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="4">
         <f>SUM(H4:H19)</f>
         <v>19</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <f t="shared" ref="I20:J20" si="1">SUM(I4:I19)</f>
         <v>558</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <f t="shared" si="1"/>
         <v>34020</v>
       </c>
